--- a/WindowsFormsApplication1/UploadDataToDatabase/Resources/Reliability.xlsx
+++ b/WindowsFormsApplication1/UploadDataToDatabase/Resources/Reliability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AN\Project\github_clone\Techlink-TLMS\WindowsFormsApplication1\WindowsFormsApplication1\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AN\Project\github_clone\Techlink-TLMS\WindowsFormsApplication1\UploadDataToDatabase\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B9086A-1181-476E-B340-B9359C60D843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE00685-EB3F-4201-8E3B-83E53AC50AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6FCF931C-F0F7-4805-9000-CA654DF3C947}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6FCF931C-F0F7-4805-9000-CA654DF3C947}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -500,6 +500,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -535,9 +538,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -868,9 +868,9 @@
   </sheetPr>
   <dimension ref="A1:S434"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19:H19"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -917,25 +917,25 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="50"/>
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
@@ -966,15 +966,15 @@
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="7"/>
       <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="11"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -988,8 +988,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1078,8 +1078,8 @@
       <c r="K8" s="24"/>
       <c r="L8" s="39"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="45"/>
@@ -1088,17 +1088,17 @@
     <row r="9" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
       <c r="K9" s="38"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="54"/>
       <c r="O9" s="55"/>
       <c r="P9" s="51"/>
@@ -1173,35 +1173,35 @@
       <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70" t="s">
+      <c r="F13" s="71"/>
+      <c r="G13" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70" t="s">
+      <c r="H13" s="71"/>
+      <c r="I13" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70" t="s">
+      <c r="J13" s="71"/>
+      <c r="K13" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71" t="s">
+      <c r="L13" s="71"/>
+      <c r="M13" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="71"/>
-      <c r="O13" s="72" t="s">
+      <c r="N13" s="72"/>
+      <c r="O13" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="73"/>
+      <c r="P13" s="74"/>
       <c r="Q13" s="46" t="s">
         <v>14</v>
       </c>
@@ -12231,8 +12231,6 @@
     <mergeCell ref="K320:L320"/>
     <mergeCell ref="B323:D323"/>
     <mergeCell ref="K325:L325"/>
-    <mergeCell ref="K328:L328"/>
-    <mergeCell ref="I330:J330"/>
     <mergeCell ref="M325:N325"/>
     <mergeCell ref="O325:P325"/>
     <mergeCell ref="B326:D326"/>
@@ -12261,17 +12259,6 @@
     <mergeCell ref="E327:F327"/>
     <mergeCell ref="G327:H327"/>
     <mergeCell ref="I327:J327"/>
-    <mergeCell ref="M338:N338"/>
-    <mergeCell ref="O338:P338"/>
-    <mergeCell ref="B339:D339"/>
-    <mergeCell ref="E339:F339"/>
-    <mergeCell ref="I335:J335"/>
-    <mergeCell ref="K335:L335"/>
-    <mergeCell ref="M335:N335"/>
-    <mergeCell ref="O335:P335"/>
-    <mergeCell ref="K334:L334"/>
-    <mergeCell ref="M334:N334"/>
-    <mergeCell ref="O331:P331"/>
     <mergeCell ref="K330:L330"/>
     <mergeCell ref="M330:N330"/>
     <mergeCell ref="O327:P327"/>
@@ -12293,6 +12280,37 @@
     <mergeCell ref="K329:L329"/>
     <mergeCell ref="M329:N329"/>
     <mergeCell ref="O329:P329"/>
+    <mergeCell ref="K328:L328"/>
+    <mergeCell ref="I330:J330"/>
+    <mergeCell ref="B333:D333"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="G333:H333"/>
+    <mergeCell ref="I333:J333"/>
+    <mergeCell ref="G336:H336"/>
+    <mergeCell ref="I336:J336"/>
+    <mergeCell ref="M338:N338"/>
+    <mergeCell ref="O338:P338"/>
+    <mergeCell ref="B339:D339"/>
+    <mergeCell ref="E339:F339"/>
+    <mergeCell ref="I335:J335"/>
+    <mergeCell ref="K335:L335"/>
+    <mergeCell ref="M335:N335"/>
+    <mergeCell ref="O335:P335"/>
+    <mergeCell ref="K334:L334"/>
+    <mergeCell ref="M334:N334"/>
+    <mergeCell ref="O331:P331"/>
+    <mergeCell ref="K344:L344"/>
+    <mergeCell ref="M344:N344"/>
+    <mergeCell ref="O344:P344"/>
+    <mergeCell ref="I344:J344"/>
+    <mergeCell ref="K342:L342"/>
+    <mergeCell ref="M342:N342"/>
+    <mergeCell ref="O342:P342"/>
+    <mergeCell ref="B343:D343"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="G343:H343"/>
+    <mergeCell ref="I343:J343"/>
+    <mergeCell ref="B342:D342"/>
     <mergeCell ref="E332:F332"/>
     <mergeCell ref="B335:D335"/>
     <mergeCell ref="E335:F335"/>
@@ -12313,42 +12331,6 @@
     <mergeCell ref="K332:L332"/>
     <mergeCell ref="M332:N332"/>
     <mergeCell ref="O332:P332"/>
-    <mergeCell ref="B333:D333"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="G333:H333"/>
-    <mergeCell ref="I333:J333"/>
-    <mergeCell ref="G336:H336"/>
-    <mergeCell ref="I336:J336"/>
-    <mergeCell ref="O345:P345"/>
-    <mergeCell ref="B346:D346"/>
-    <mergeCell ref="E346:F346"/>
-    <mergeCell ref="G346:H346"/>
-    <mergeCell ref="I346:J346"/>
-    <mergeCell ref="B345:D345"/>
-    <mergeCell ref="E345:F345"/>
-    <mergeCell ref="G345:H345"/>
-    <mergeCell ref="I345:J345"/>
-    <mergeCell ref="K344:L344"/>
-    <mergeCell ref="M344:N344"/>
-    <mergeCell ref="O344:P344"/>
-    <mergeCell ref="I344:J344"/>
-    <mergeCell ref="K342:L342"/>
-    <mergeCell ref="M342:N342"/>
-    <mergeCell ref="O342:P342"/>
-    <mergeCell ref="B343:D343"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="G343:H343"/>
-    <mergeCell ref="I343:J343"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="K340:L340"/>
-    <mergeCell ref="M340:N340"/>
-    <mergeCell ref="E342:F342"/>
-    <mergeCell ref="G342:H342"/>
-    <mergeCell ref="I342:J342"/>
-    <mergeCell ref="B338:D338"/>
-    <mergeCell ref="E338:F338"/>
-    <mergeCell ref="G338:H338"/>
-    <mergeCell ref="I338:J338"/>
     <mergeCell ref="B341:D341"/>
     <mergeCell ref="E341:F341"/>
     <mergeCell ref="I353:J353"/>
@@ -12372,6 +12354,15 @@
     <mergeCell ref="B340:D340"/>
     <mergeCell ref="E340:F340"/>
     <mergeCell ref="G340:H340"/>
+    <mergeCell ref="O345:P345"/>
+    <mergeCell ref="B346:D346"/>
+    <mergeCell ref="E346:F346"/>
+    <mergeCell ref="G346:H346"/>
+    <mergeCell ref="I346:J346"/>
+    <mergeCell ref="B345:D345"/>
+    <mergeCell ref="E345:F345"/>
+    <mergeCell ref="G345:H345"/>
+    <mergeCell ref="I345:J345"/>
     <mergeCell ref="I340:J340"/>
     <mergeCell ref="K338:L338"/>
     <mergeCell ref="I349:J349"/>
@@ -12395,6 +12386,15 @@
     <mergeCell ref="K350:L350"/>
     <mergeCell ref="M350:N350"/>
     <mergeCell ref="O350:P350"/>
+    <mergeCell ref="K340:L340"/>
+    <mergeCell ref="M340:N340"/>
+    <mergeCell ref="E342:F342"/>
+    <mergeCell ref="G342:H342"/>
+    <mergeCell ref="I342:J342"/>
+    <mergeCell ref="B338:D338"/>
+    <mergeCell ref="E338:F338"/>
+    <mergeCell ref="G338:H338"/>
+    <mergeCell ref="I338:J338"/>
     <mergeCell ref="K354:L354"/>
     <mergeCell ref="M354:N354"/>
     <mergeCell ref="O354:P354"/>
@@ -12618,6 +12618,13 @@
     <mergeCell ref="E379:F379"/>
     <mergeCell ref="G379:H379"/>
     <mergeCell ref="I379:J379"/>
+    <mergeCell ref="K383:L383"/>
+    <mergeCell ref="M383:N383"/>
+    <mergeCell ref="O383:P383"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="E384:F384"/>
+    <mergeCell ref="G384:H384"/>
+    <mergeCell ref="I384:J384"/>
     <mergeCell ref="K382:L382"/>
     <mergeCell ref="M382:N382"/>
     <mergeCell ref="O382:P382"/>
@@ -12636,6 +12643,10 @@
     <mergeCell ref="E381:F381"/>
     <mergeCell ref="G381:H381"/>
     <mergeCell ref="I381:J381"/>
+    <mergeCell ref="O391:P391"/>
+    <mergeCell ref="B392:D392"/>
+    <mergeCell ref="E392:F392"/>
+    <mergeCell ref="G392:H392"/>
     <mergeCell ref="K385:L385"/>
     <mergeCell ref="M385:N385"/>
     <mergeCell ref="O385:P385"/>
@@ -12650,13 +12661,10 @@
     <mergeCell ref="E385:F385"/>
     <mergeCell ref="G385:H385"/>
     <mergeCell ref="I385:J385"/>
-    <mergeCell ref="K383:L383"/>
-    <mergeCell ref="M383:N383"/>
-    <mergeCell ref="O383:P383"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="E384:F384"/>
-    <mergeCell ref="G384:H384"/>
-    <mergeCell ref="I384:J384"/>
+    <mergeCell ref="O394:P394"/>
+    <mergeCell ref="K391:L391"/>
+    <mergeCell ref="M391:N391"/>
+    <mergeCell ref="I392:J392"/>
     <mergeCell ref="K387:L387"/>
     <mergeCell ref="M387:N387"/>
     <mergeCell ref="O387:P387"/>
@@ -12685,10 +12693,14 @@
     <mergeCell ref="M393:N393"/>
     <mergeCell ref="O393:P393"/>
     <mergeCell ref="B394:D394"/>
-    <mergeCell ref="O391:P391"/>
-    <mergeCell ref="B392:D392"/>
-    <mergeCell ref="E392:F392"/>
-    <mergeCell ref="G392:H392"/>
+    <mergeCell ref="G398:H398"/>
+    <mergeCell ref="I398:J398"/>
+    <mergeCell ref="K400:L400"/>
+    <mergeCell ref="M400:N400"/>
+    <mergeCell ref="O400:P400"/>
+    <mergeCell ref="B400:D400"/>
+    <mergeCell ref="E400:F400"/>
+    <mergeCell ref="G400:H400"/>
     <mergeCell ref="K390:L390"/>
     <mergeCell ref="M390:N390"/>
     <mergeCell ref="O390:P390"/>
@@ -12713,10 +12725,16 @@
     <mergeCell ref="G389:H389"/>
     <mergeCell ref="K394:L394"/>
     <mergeCell ref="M394:N394"/>
-    <mergeCell ref="O394:P394"/>
-    <mergeCell ref="K391:L391"/>
-    <mergeCell ref="M391:N391"/>
-    <mergeCell ref="I392:J392"/>
+    <mergeCell ref="B404:D404"/>
+    <mergeCell ref="E404:F404"/>
+    <mergeCell ref="G404:H404"/>
+    <mergeCell ref="K401:L401"/>
+    <mergeCell ref="M401:N401"/>
+    <mergeCell ref="O401:P401"/>
+    <mergeCell ref="B401:D401"/>
+    <mergeCell ref="E401:F401"/>
+    <mergeCell ref="G401:H401"/>
+    <mergeCell ref="I401:J401"/>
     <mergeCell ref="I400:J400"/>
     <mergeCell ref="B395:D395"/>
     <mergeCell ref="G395:H395"/>
@@ -12739,46 +12757,6 @@
     <mergeCell ref="K398:L398"/>
     <mergeCell ref="M398:N398"/>
     <mergeCell ref="E398:F398"/>
-    <mergeCell ref="G398:H398"/>
-    <mergeCell ref="I398:J398"/>
-    <mergeCell ref="B402:D402"/>
-    <mergeCell ref="E402:F402"/>
-    <mergeCell ref="G402:H402"/>
-    <mergeCell ref="I402:J402"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="E405:F405"/>
-    <mergeCell ref="G405:H405"/>
-    <mergeCell ref="I405:J405"/>
-    <mergeCell ref="K403:L403"/>
-    <mergeCell ref="M403:N403"/>
-    <mergeCell ref="O403:P403"/>
-    <mergeCell ref="B404:D404"/>
-    <mergeCell ref="E404:F404"/>
-    <mergeCell ref="G404:H404"/>
-    <mergeCell ref="K401:L401"/>
-    <mergeCell ref="M401:N401"/>
-    <mergeCell ref="O401:P401"/>
-    <mergeCell ref="K400:L400"/>
-    <mergeCell ref="M400:N400"/>
-    <mergeCell ref="O400:P400"/>
-    <mergeCell ref="B401:D401"/>
-    <mergeCell ref="E401:F401"/>
-    <mergeCell ref="G401:H401"/>
-    <mergeCell ref="I401:J401"/>
-    <mergeCell ref="B400:D400"/>
-    <mergeCell ref="E400:F400"/>
-    <mergeCell ref="G400:H400"/>
-    <mergeCell ref="K408:L408"/>
-    <mergeCell ref="M408:N408"/>
-    <mergeCell ref="O408:P408"/>
-    <mergeCell ref="B409:D409"/>
-    <mergeCell ref="E409:F409"/>
-    <mergeCell ref="G409:H409"/>
-    <mergeCell ref="K407:L407"/>
-    <mergeCell ref="M407:N407"/>
-    <mergeCell ref="O407:P407"/>
-    <mergeCell ref="B408:D408"/>
-    <mergeCell ref="E408:F408"/>
     <mergeCell ref="G408:H408"/>
     <mergeCell ref="I408:J408"/>
     <mergeCell ref="B397:D397"/>
@@ -12800,17 +12778,17 @@
     <mergeCell ref="O402:P402"/>
     <mergeCell ref="I399:J399"/>
     <mergeCell ref="O399:P399"/>
-    <mergeCell ref="K410:L410"/>
-    <mergeCell ref="M410:N410"/>
-    <mergeCell ref="O410:P410"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="E411:F411"/>
-    <mergeCell ref="G411:H411"/>
-    <mergeCell ref="I411:J411"/>
-    <mergeCell ref="B410:D410"/>
-    <mergeCell ref="E410:F410"/>
-    <mergeCell ref="G410:H410"/>
-    <mergeCell ref="I410:J410"/>
+    <mergeCell ref="B402:D402"/>
+    <mergeCell ref="E402:F402"/>
+    <mergeCell ref="G402:H402"/>
+    <mergeCell ref="I402:J402"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="E405:F405"/>
+    <mergeCell ref="G405:H405"/>
+    <mergeCell ref="I405:J405"/>
+    <mergeCell ref="K403:L403"/>
+    <mergeCell ref="M403:N403"/>
+    <mergeCell ref="O403:P403"/>
     <mergeCell ref="I409:J409"/>
     <mergeCell ref="K409:L409"/>
     <mergeCell ref="M409:N409"/>
@@ -12832,6 +12810,52 @@
     <mergeCell ref="E403:F403"/>
     <mergeCell ref="G403:H403"/>
     <mergeCell ref="I403:J403"/>
+    <mergeCell ref="K408:L408"/>
+    <mergeCell ref="M408:N408"/>
+    <mergeCell ref="O408:P408"/>
+    <mergeCell ref="B409:D409"/>
+    <mergeCell ref="E409:F409"/>
+    <mergeCell ref="G409:H409"/>
+    <mergeCell ref="K407:L407"/>
+    <mergeCell ref="M407:N407"/>
+    <mergeCell ref="O407:P407"/>
+    <mergeCell ref="B408:D408"/>
+    <mergeCell ref="E408:F408"/>
+    <mergeCell ref="O413:P413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="E414:F414"/>
+    <mergeCell ref="G414:H414"/>
+    <mergeCell ref="I414:J414"/>
+    <mergeCell ref="K412:L412"/>
+    <mergeCell ref="M412:N412"/>
+    <mergeCell ref="O412:P412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="E413:F413"/>
+    <mergeCell ref="G413:H413"/>
+    <mergeCell ref="I413:J413"/>
+    <mergeCell ref="K410:L410"/>
+    <mergeCell ref="M410:N410"/>
+    <mergeCell ref="O410:P410"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="E411:F411"/>
+    <mergeCell ref="G411:H411"/>
+    <mergeCell ref="I411:J411"/>
+    <mergeCell ref="B410:D410"/>
+    <mergeCell ref="E410:F410"/>
+    <mergeCell ref="G410:H410"/>
+    <mergeCell ref="I410:J410"/>
+    <mergeCell ref="K413:L413"/>
+    <mergeCell ref="M413:N413"/>
+    <mergeCell ref="K417:L417"/>
+    <mergeCell ref="M417:N417"/>
+    <mergeCell ref="O417:P417"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="G418:H418"/>
+    <mergeCell ref="I418:J418"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="E417:F417"/>
+    <mergeCell ref="G417:H417"/>
     <mergeCell ref="K411:L411"/>
     <mergeCell ref="M411:N411"/>
     <mergeCell ref="O411:P411"/>
@@ -12852,18 +12876,16 @@
     <mergeCell ref="K414:L414"/>
     <mergeCell ref="M414:N414"/>
     <mergeCell ref="O414:P414"/>
-    <mergeCell ref="O413:P413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="E414:F414"/>
-    <mergeCell ref="G414:H414"/>
-    <mergeCell ref="I414:J414"/>
-    <mergeCell ref="K412:L412"/>
-    <mergeCell ref="M412:N412"/>
-    <mergeCell ref="O412:P412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="E413:F413"/>
-    <mergeCell ref="G413:H413"/>
-    <mergeCell ref="I413:J413"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:F427"/>
+    <mergeCell ref="G427:H427"/>
+    <mergeCell ref="I427:J427"/>
+    <mergeCell ref="E426:F426"/>
+    <mergeCell ref="G426:H426"/>
+    <mergeCell ref="I426:J426"/>
+    <mergeCell ref="B425:D425"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="G425:H425"/>
     <mergeCell ref="I417:J417"/>
     <mergeCell ref="K418:L418"/>
     <mergeCell ref="M418:N418"/>
@@ -12872,56 +12894,6 @@
     <mergeCell ref="E415:F415"/>
     <mergeCell ref="G415:H415"/>
     <mergeCell ref="I415:J415"/>
-    <mergeCell ref="K413:L413"/>
-    <mergeCell ref="M413:N413"/>
-    <mergeCell ref="K417:L417"/>
-    <mergeCell ref="M417:N417"/>
-    <mergeCell ref="O417:P417"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="G418:H418"/>
-    <mergeCell ref="I418:J418"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="E417:F417"/>
-    <mergeCell ref="G417:H417"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:F430"/>
-    <mergeCell ref="G430:H430"/>
-    <mergeCell ref="I430:J430"/>
-    <mergeCell ref="K428:L428"/>
-    <mergeCell ref="M428:N428"/>
-    <mergeCell ref="I424:J424"/>
-    <mergeCell ref="K424:L424"/>
-    <mergeCell ref="M424:N424"/>
-    <mergeCell ref="O424:P424"/>
-    <mergeCell ref="K423:L423"/>
-    <mergeCell ref="M423:N423"/>
-    <mergeCell ref="O423:P423"/>
-    <mergeCell ref="B424:D424"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="G424:H424"/>
-    <mergeCell ref="K422:L422"/>
-    <mergeCell ref="M422:N422"/>
-    <mergeCell ref="O422:P422"/>
-    <mergeCell ref="B423:D423"/>
-    <mergeCell ref="E423:F423"/>
-    <mergeCell ref="G423:H423"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:F427"/>
-    <mergeCell ref="G427:H427"/>
-    <mergeCell ref="I427:J427"/>
-    <mergeCell ref="I419:J419"/>
-    <mergeCell ref="O421:P421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="K431:L431"/>
-    <mergeCell ref="M431:N431"/>
-    <mergeCell ref="O431:P431"/>
-    <mergeCell ref="K430:L430"/>
-    <mergeCell ref="M430:N430"/>
-    <mergeCell ref="O430:P430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:F431"/>
-    <mergeCell ref="G431:H431"/>
     <mergeCell ref="I431:J431"/>
     <mergeCell ref="K429:L429"/>
     <mergeCell ref="K427:L427"/>
@@ -12942,12 +12914,18 @@
     <mergeCell ref="M425:N425"/>
     <mergeCell ref="O425:P425"/>
     <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:F426"/>
-    <mergeCell ref="G426:H426"/>
-    <mergeCell ref="I426:J426"/>
-    <mergeCell ref="B425:D425"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="G425:H425"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:F430"/>
+    <mergeCell ref="G430:H430"/>
+    <mergeCell ref="I430:J430"/>
+    <mergeCell ref="K428:L428"/>
+    <mergeCell ref="M428:N428"/>
+    <mergeCell ref="I424:J424"/>
+    <mergeCell ref="K424:L424"/>
+    <mergeCell ref="M424:N424"/>
+    <mergeCell ref="O424:P424"/>
+    <mergeCell ref="K423:L423"/>
+    <mergeCell ref="M423:N423"/>
     <mergeCell ref="I425:J425"/>
     <mergeCell ref="E421:F421"/>
     <mergeCell ref="M421:N421"/>
@@ -12966,6 +12944,19 @@
     <mergeCell ref="K421:L421"/>
     <mergeCell ref="G421:H421"/>
     <mergeCell ref="I421:J421"/>
+    <mergeCell ref="I419:J419"/>
+    <mergeCell ref="O421:P421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="O423:P423"/>
+    <mergeCell ref="B424:D424"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="G424:H424"/>
+    <mergeCell ref="K422:L422"/>
+    <mergeCell ref="M422:N422"/>
+    <mergeCell ref="O422:P422"/>
+    <mergeCell ref="B423:D423"/>
+    <mergeCell ref="E423:F423"/>
+    <mergeCell ref="G423:H423"/>
     <mergeCell ref="I433:J433"/>
     <mergeCell ref="K433:L433"/>
     <mergeCell ref="M433:N433"/>
@@ -12989,6 +12980,15 @@
     <mergeCell ref="O428:P428"/>
     <mergeCell ref="B429:D429"/>
     <mergeCell ref="E429:F429"/>
+    <mergeCell ref="K431:L431"/>
+    <mergeCell ref="M431:N431"/>
+    <mergeCell ref="O431:P431"/>
+    <mergeCell ref="K430:L430"/>
+    <mergeCell ref="M430:N430"/>
+    <mergeCell ref="O430:P430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:F431"/>
+    <mergeCell ref="G431:H431"/>
   </mergeCells>
   <pageMargins left="0" right="0.78740157480314965" top="0" bottom="1.2795275590551181" header="0" footer="0.78740157480314965"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -13007,7 +13007,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8:O8"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13054,25 +13054,25 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="50"/>
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
@@ -13103,15 +13103,15 @@
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="13"/>
       <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="11"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -13125,8 +13125,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -13225,17 +13225,17 @@
     <row r="9" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
       <c r="K9" s="38"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
       <c r="N9" s="54"/>
       <c r="O9" s="55"/>
       <c r="P9" s="51"/>
@@ -13310,35 +13310,35 @@
       <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70" t="s">
+      <c r="F13" s="71"/>
+      <c r="G13" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70" t="s">
+      <c r="H13" s="71"/>
+      <c r="I13" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70" t="s">
+      <c r="J13" s="71"/>
+      <c r="K13" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71" t="s">
+      <c r="L13" s="71"/>
+      <c r="M13" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="71"/>
-      <c r="O13" s="72" t="s">
+      <c r="N13" s="72"/>
+      <c r="O13" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="73"/>
+      <c r="P13" s="74"/>
       <c r="Q13" s="46" t="s">
         <v>14</v>
       </c>
@@ -25142,9 +25142,9 @@
   </sheetPr>
   <dimension ref="A1:S434"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8:O8"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -25191,25 +25191,25 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="50"/>
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
@@ -25240,15 +25240,15 @@
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="33"/>
       <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="11"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -25262,8 +25262,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -25352,8 +25352,8 @@
       <c r="K8" s="24"/>
       <c r="L8" s="40"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="45"/>
@@ -25362,17 +25362,17 @@
     <row r="9" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
       <c r="K9" s="38"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
       <c r="N9" s="54"/>
       <c r="O9" s="55"/>
       <c r="P9" s="51"/>
@@ -25447,35 +25447,35 @@
       <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70" t="s">
+      <c r="F13" s="71"/>
+      <c r="G13" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70" t="s">
+      <c r="H13" s="71"/>
+      <c r="I13" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70" t="s">
+      <c r="J13" s="71"/>
+      <c r="K13" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71" t="s">
+      <c r="L13" s="71"/>
+      <c r="M13" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="71"/>
-      <c r="O13" s="72" t="s">
+      <c r="N13" s="72"/>
+      <c r="O13" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="73"/>
+      <c r="P13" s="74"/>
       <c r="Q13" s="46" t="s">
         <v>14</v>
       </c>
@@ -37280,8 +37280,8 @@
   <dimension ref="A1:S434"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8:O8"/>
+      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -37328,25 +37328,25 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="50"/>
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
@@ -37377,15 +37377,15 @@
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="33"/>
       <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="11"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -37399,8 +37399,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -37499,17 +37499,17 @@
     <row r="9" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
       <c r="K9" s="38"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
       <c r="N9" s="54"/>
       <c r="O9" s="55"/>
       <c r="P9" s="51"/>
@@ -37584,35 +37584,35 @@
       <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70" t="s">
+      <c r="F13" s="71"/>
+      <c r="G13" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70" t="s">
+      <c r="H13" s="71"/>
+      <c r="I13" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70" t="s">
+      <c r="J13" s="71"/>
+      <c r="K13" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71" t="s">
+      <c r="L13" s="71"/>
+      <c r="M13" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="71"/>
-      <c r="O13" s="72" t="s">
+      <c r="N13" s="72"/>
+      <c r="O13" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="73"/>
+      <c r="P13" s="74"/>
       <c r="Q13" s="46" t="s">
         <v>14</v>
       </c>
@@ -49414,12 +49414,12 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="9" width="8.88671875" style="35"/>
+    <col min="8" max="10" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -49450,7 +49450,7 @@
       <c r="I1" s="35">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="35">
         <v>10</v>
       </c>
       <c r="K1">
